--- a/Zad3/Zad3.xlsx
+++ b/Zad3/Zad3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamludwiczak/Projects/AOI/Zjazd3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adaml\Documents\MPwI\Zad3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81100BE-1AA7-A94D-A780-B3AC2ACF9851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505DD2B2-DB2E-4444-9AEF-79A799BCCC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{30F15C53-9D58-6A44-9857-3CCA7536F77E}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="28800" windowHeight="11295" xr2:uid="{30F15C53-9D58-6A44-9857-3CCA7536F77E}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="dane_19" localSheetId="0">Arkusz1!$B$2:$B$72</definedName>
     <definedName name="dane_20" localSheetId="0">Arkusz1!$C$2:$C$72</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -112,7 +112,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -132,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -140,16 +140,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -713,6 +729,7 @@
         <c:axId val="8517935"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="70"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3103,21 +3120,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47D88D3-6BDC-4A4A-B35B-432DC5D53FF5}">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C51" zoomScale="150" workbookViewId="0">
-      <selection activeCell="K64" sqref="K64"/>
+    <sheetView tabSelected="1" topLeftCell="F34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70:L70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3128,7 +3145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3139,7 +3156,7 @@
         <v>0.186</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3150,7 +3167,7 @@
         <v>0.186</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3161,7 +3178,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3172,7 +3189,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3183,7 +3200,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3194,7 +3211,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3205,7 +3222,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3216,7 +3233,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3227,7 +3244,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3238,7 +3255,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3249,7 +3266,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3260,7 +3277,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3271,7 +3288,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3282,7 +3299,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3293,7 +3310,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3304,7 +3321,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3315,7 +3332,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3326,7 +3343,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3337,7 +3354,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3348,7 +3365,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3359,7 +3376,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3370,7 +3387,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3381,7 +3398,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3392,7 +3409,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3403,7 +3420,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3414,7 +3431,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3425,7 +3442,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3436,7 +3453,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3447,7 +3464,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3458,7 +3475,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3469,7 +3486,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3480,7 +3497,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3491,7 +3508,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3502,7 +3519,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3513,7 +3530,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3524,7 +3541,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3535,7 +3552,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3546,7 +3563,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3557,7 +3574,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3568,7 +3585,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3579,7 +3596,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3590,7 +3607,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3601,7 +3618,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3612,7 +3629,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3623,7 +3640,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3634,7 +3651,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3645,7 +3662,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3656,7 +3673,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3667,7 +3684,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3678,7 +3695,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3689,7 +3706,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3700,7 +3717,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3711,7 +3728,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3722,7 +3739,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3733,7 +3750,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3744,7 +3761,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3755,7 +3772,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3766,7 +3783,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3777,7 +3794,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3788,7 +3805,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3798,12 +3815,12 @@
       <c r="C62">
         <v>0.192</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3813,15 +3830,15 @@
       <c r="C63">
         <v>0.193</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="2">
         <f>COUNT(A2:A71)</f>
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3831,22 +3848,22 @@
       <c r="C64">
         <v>0.193</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="2">
         <f>MIN(C2:C71)</f>
         <v>0.186</v>
       </c>
-      <c r="J64" t="s">
+      <c r="J64" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="2">
         <f>ABS((H65-H66)/H67)</f>
         <v>1.9335820149023728</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3856,22 +3873,22 @@
       <c r="C65">
         <v>0.193</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="2">
         <f>MAX(C2:C71)</f>
         <v>0.19400000000000001</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J65" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="2">
         <f>ABS((H66-H64)/H67)</f>
         <v>2.0768103123028041</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3881,15 +3898,15 @@
       <c r="C66">
         <v>0.193</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66" s="3">
         <f>AVERAGE(C2:C71)</f>
         <v>0.19014285714285739</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3899,22 +3916,23 @@
       <c r="C67">
         <v>0.193</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="2">
         <f>STDEV(C2:C71)</f>
         <v>1.9948173014721401E-3</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J67" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="1">
         <f>1-(H68/H63)</f>
         <v>0.99928571428571433</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3924,21 +3942,22 @@
       <c r="C68">
         <v>0.19400000000000001</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="2">
         <v>0.05</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="1">
         <f>NORMSINV(K67)</f>
         <v>3.1888152586384755</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3948,15 +3967,16 @@
       <c r="C69">
         <v>0.19400000000000001</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="1">
         <f>K68*SQRT(2*(H63-1)/(2*H63-5+(POWER(K68,2)+(3+POWER(K68,2)+2*POWER(K68,4))*(1)/(6*(2*H63-5)))))</f>
         <v>3.1061813652937182</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3966,13 +3986,13 @@
       <c r="C70">
         <v>0.19400000000000001</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="J70" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3987,9 +4007,12 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C71">
     <sortCondition ref="C2:C71"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="G62:H62"/>
     <mergeCell ref="J70:L70"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K69:L69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
